--- a/public/assets/download-format/bulk_user_upload_tesing.xlsx
+++ b/public/assets/download-format/bulk_user_upload_tesing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t xml:space="preserve">user_first_name</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">non</t>
   </si>
   <si>
-    <t xml:space="preserve">acad</t>
+    <t xml:space="preserve">Acad_11</t>
   </si>
   <si>
     <t xml:space="preserve">+91-9651970290</t>
@@ -74,19 +74,45 @@
   </si>
   <si>
     <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acad_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acad_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acad_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acad_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acad_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acad_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acad_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acad_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acad_20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy/dd/mm;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -116,6 +142,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,10 +196,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -176,24 +204,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -273,18 +305,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="E1:E5 D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.3359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.43"/>
@@ -295,139 +327,417 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="34.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="22.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>41187</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>207</v>
-      </c>
-      <c r="AA2" s="0"/>
+      <c r="D2" s="5" t="n">
+        <v>41187</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8" t="n">
+        <v>509</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="6"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="8"/>
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>41187</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>509</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="6"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="8"/>
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>41187</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>41187</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>41187</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>41187</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>41187</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>41187</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>41187</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>41187</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>509</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="F3" r:id="rId2" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="F4" r:id="rId3" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId4" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="F6" r:id="rId5" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="F7" r:id="rId6" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="F8" r:id="rId7" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="F9" r:id="rId8" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="F10" r:id="rId9" display="kuvikash123@gmail.com"/>
+    <hyperlink ref="F11" r:id="rId10" display="kuvikash123@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.08263888888889" bottom="1.08263888888889" header="0.886111111111111" footer="0.886111111111111"/>
